--- a/biology/Botanique/Parc_du_canal/Parc_du_canal.xlsx
+++ b/biology/Botanique/Parc_du_canal/Parc_du_canal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc du canal (estonien : Kanali park) est un parc du quartier Annelinn de Tartu en Estonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc long et étroit est situé entre le canal d'Anne et la rue Pikk tänav, dans la zone située entre le pont Turusild et le pont Sõprus.
 La superficie du parc est de 4,8 hectares.
